--- a/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
@@ -4,29 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_CDQdust_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>6&amp;7#焦 CDQ除尘</t>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                                                                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                         </t>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -34,7 +48,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>年</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -50,7 +64,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -58,24 +72,14 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SGSSGBSMCSA35G00501A</t>
   </si>
   <si>
     <t xml:space="preserve">         参数
@@ -689,8 +693,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -741,52 +745,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -801,9 +759,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,9 +768,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,8 +782,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,18 +834,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -869,18 +864,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,13 +925,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,31 +1057,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,132 +1109,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -1381,16 +1385,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,23 +1422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1472,8 +1461,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,10 +1487,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,140 +1499,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1639,14 +1643,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1704,6 +1705,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2564,6 +2571,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2825,110 +2845,117 @@
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="13" width="8.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="256" width="8.625" style="4" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="4"/>
+    <col min="1" max="13" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27" spans="2:19">
-      <c r="B1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="2:19">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="16.5" spans="2:19">
-      <c r="B2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="16.5" spans="2:19">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="25" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
     </row>
-    <row r="3" s="4" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="R3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="36.75" spans="2:19">
-      <c r="B4" s="12"/>
+    <row r="4" s="1" customFormat="1" ht="36.75" spans="2:19">
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2939,89 +2966,89 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
     </row>
-    <row r="5" s="4" customFormat="1" ht="78.75" spans="2:19">
-      <c r="B5" s="14" t="s">
-        <v>20</v>
+    <row r="5" s="1" customFormat="1" ht="78.75" spans="2:19">
+      <c r="B5" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B6" s="15">
+    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -3048,7 +3075,7 @@
         <f>IF(_CDQdust_day_hour!F2="","",_CDQdust_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G2="","",_CDQdust_day_hour!G2)</f>
         <v/>
       </c>
@@ -3084,17 +3111,17 @@
         <f>IF(_CDQdust_day_hour!O2="","",_CDQdust_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="33" t="str">
+      <c r="R6" s="34" t="str">
         <f>IF(_CDQdust_day_hour!P2="","",_CDQdust_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="34" t="str">
+      <c r="S6" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q2="","",_CDQdust_day_hour!Q2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B7" s="15">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B7" s="14">
         <v>0.0416666666666667</v>
       </c>
       <c r="C7" s="2" t="str">
@@ -3121,7 +3148,7 @@
         <f>IF(_CDQdust_day_hour!F3="","",_CDQdust_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G3="","",_CDQdust_day_hour!G3)</f>
         <v/>
       </c>
@@ -3157,17 +3184,17 @@
         <f>IF(_CDQdust_day_hour!O3="","",_CDQdust_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="36" t="str">
         <f>IF(_CDQdust_day_hour!P3="","",_CDQdust_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q3="","",_CDQdust_day_hour!Q3)</f>
         <v/>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B8" s="15">
+    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B8" s="14">
         <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="2" t="str">
@@ -3194,7 +3221,7 @@
         <f>IF(_CDQdust_day_hour!F4="","",_CDQdust_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G4="","",_CDQdust_day_hour!G4)</f>
         <v/>
       </c>
@@ -3234,13 +3261,13 @@
         <f>IF(_CDQdust_day_hour!P4="","",_CDQdust_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q4="","",_CDQdust_day_hour!Q4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B9" s="15">
+    <row r="9" s="1" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B9" s="14">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -3267,7 +3294,7 @@
         <f>IF(_CDQdust_day_hour!F5="","",_CDQdust_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G5="","",_CDQdust_day_hour!G5)</f>
         <v/>
       </c>
@@ -3307,13 +3334,13 @@
         <f>IF(_CDQdust_day_hour!P5="","",_CDQdust_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q5="","",_CDQdust_day_hour!Q5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B10" s="15">
+    <row r="10" s="1" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B10" s="14">
         <v>0.166666666666667</v>
       </c>
       <c r="C10" s="2" t="str">
@@ -3340,7 +3367,7 @@
         <f>IF(_CDQdust_day_hour!F6="","",_CDQdust_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G6="","",_CDQdust_day_hour!G6)</f>
         <v/>
       </c>
@@ -3380,13 +3407,13 @@
         <f>IF(_CDQdust_day_hour!P6="","",_CDQdust_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q6="","",_CDQdust_day_hour!Q6)</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B11" s="15">
+    <row r="11" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B11" s="14">
         <v>0.208333333333333</v>
       </c>
       <c r="C11" s="2" t="str">
@@ -3413,7 +3440,7 @@
         <f>IF(_CDQdust_day_hour!F7="","",_CDQdust_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I11" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G7="","",_CDQdust_day_hour!G7)</f>
         <v/>
       </c>
@@ -3453,13 +3480,13 @@
         <f>IF(_CDQdust_day_hour!P7="","",_CDQdust_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q7="","",_CDQdust_day_hour!Q7)</f>
         <v/>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B12" s="15">
+    <row r="12" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B12" s="14">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -3486,7 +3513,7 @@
         <f>IF(_CDQdust_day_hour!F8="","",_CDQdust_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G8="","",_CDQdust_day_hour!G8)</f>
         <v/>
       </c>
@@ -3526,13 +3553,13 @@
         <f>IF(_CDQdust_day_hour!P8="","",_CDQdust_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q8="","",_CDQdust_day_hour!Q8)</f>
         <v/>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B13" s="15">
+    <row r="13" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B13" s="14">
         <v>0.291666666666667</v>
       </c>
       <c r="C13" s="2" t="str">
@@ -3559,7 +3586,7 @@
         <f>IF(_CDQdust_day_hour!F9="","",_CDQdust_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G9="","",_CDQdust_day_hour!G9)</f>
         <v/>
       </c>
@@ -3599,13 +3626,13 @@
         <f>IF(_CDQdust_day_hour!P9="","",_CDQdust_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q9="","",_CDQdust_day_hour!Q9)</f>
         <v/>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B14" s="15">
+    <row r="14" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B14" s="14">
         <v>0.333333333333333</v>
       </c>
       <c r="C14" s="2" t="str">
@@ -3632,7 +3659,7 @@
         <f>IF(_CDQdust_day_hour!F10="","",_CDQdust_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G10="","",_CDQdust_day_hour!G10)</f>
         <v/>
       </c>
@@ -3672,13 +3699,13 @@
         <f>IF(_CDQdust_day_hour!P10="","",_CDQdust_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q10="","",_CDQdust_day_hour!Q10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B15" s="15">
+    <row r="15" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B15" s="14">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -3705,7 +3732,7 @@
         <f>IF(_CDQdust_day_hour!F11="","",_CDQdust_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G11="","",_CDQdust_day_hour!G11)</f>
         <v/>
       </c>
@@ -3745,13 +3772,13 @@
         <f>IF(_CDQdust_day_hour!P11="","",_CDQdust_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="34" t="str">
+      <c r="S15" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q11="","",_CDQdust_day_hour!Q11)</f>
         <v/>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B16" s="15">
+    <row r="16" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B16" s="14">
         <v>0.416666666666667</v>
       </c>
       <c r="C16" s="2" t="str">
@@ -3778,7 +3805,7 @@
         <f>IF(_CDQdust_day_hour!F12="","",_CDQdust_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G12="","",_CDQdust_day_hour!G12)</f>
         <v/>
       </c>
@@ -3818,13 +3845,13 @@
         <f>IF(_CDQdust_day_hour!P12="","",_CDQdust_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="34" t="str">
+      <c r="S16" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q12="","",_CDQdust_day_hour!Q12)</f>
         <v/>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B17" s="15">
+    <row r="17" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B17" s="14">
         <v>0.458333333333333</v>
       </c>
       <c r="C17" s="2" t="str">
@@ -3851,7 +3878,7 @@
         <f>IF(_CDQdust_day_hour!F13="","",_CDQdust_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G13="","",_CDQdust_day_hour!G13)</f>
         <v/>
       </c>
@@ -3891,1042 +3918,1043 @@
         <f>IF(_CDQdust_day_hour!P13="","",_CDQdust_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="34" t="str">
+      <c r="S17" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q13="","",_CDQdust_day_hour!Q13)</f>
         <v/>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B18" s="15">
+    <row r="18" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B18" s="14">
         <v>0.5</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A14="","",_CDQdust_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B14="","",_CDQdust_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C14="","",_CDQdust_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D14="","",_CDQdust_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E14="","",_CDQdust_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F14="","",_CDQdust_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G14="","",_CDQdust_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H14="","",_CDQdust_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I14="","",_CDQdust_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J14="","",_CDQdust_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K14="","",_CDQdust_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L14="","",_CDQdust_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M14="","",_CDQdust_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N14="","",_CDQdust_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="27" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O14="","",_CDQdust_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(_CDQdust_day_hour!P14="","",_CDQdust_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="36" t="str">
+      <c r="S18" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q14="","",_CDQdust_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B19" s="15">
+    <row r="19" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B19" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A15="","",_CDQdust_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B15="","",_CDQdust_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C15="","",_CDQdust_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D15="","",_CDQdust_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E15="","",_CDQdust_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F15="","",_CDQdust_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G15="","",_CDQdust_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H15="","",_CDQdust_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I15="","",_CDQdust_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J15="","",_CDQdust_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K15="","",_CDQdust_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L15="","",_CDQdust_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M15="","",_CDQdust_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N15="","",_CDQdust_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="27" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O15="","",_CDQdust_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="35" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_CDQdust_day_hour!P15="","",_CDQdust_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="36" t="str">
+      <c r="S19" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q15="","",_CDQdust_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B20" s="15">
+    <row r="20" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B20" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A16="","",_CDQdust_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B16="","",_CDQdust_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C16="","",_CDQdust_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D16="","",_CDQdust_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E16="","",_CDQdust_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F16="","",_CDQdust_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G16="","",_CDQdust_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H16="","",_CDQdust_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I16="","",_CDQdust_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J16="","",_CDQdust_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K16="","",_CDQdust_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L16="","",_CDQdust_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M16="","",_CDQdust_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N16="","",_CDQdust_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="27" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O16="","",_CDQdust_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P16="","",_CDQdust_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="36" t="str">
+      <c r="S20" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q16="","",_CDQdust_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B21" s="15">
+    <row r="21" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B21" s="14">
         <v>0.625</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A17="","",_CDQdust_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B17="","",_CDQdust_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C17="","",_CDQdust_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D17="","",_CDQdust_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E17="","",_CDQdust_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F17="","",_CDQdust_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G17="","",_CDQdust_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H17="","",_CDQdust_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I17="","",_CDQdust_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J17="","",_CDQdust_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K17="","",_CDQdust_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L17="","",_CDQdust_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M17="","",_CDQdust_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N17="","",_CDQdust_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="27" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O17="","",_CDQdust_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P17="","",_CDQdust_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="36" t="str">
+      <c r="S21" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q17="","",_CDQdust_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B22" s="15">
+    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B22" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A18="","",_CDQdust_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B18="","",_CDQdust_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C18="","",_CDQdust_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D18="","",_CDQdust_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E18="","",_CDQdust_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F18="","",_CDQdust_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G18="","",_CDQdust_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H18="","",_CDQdust_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I18="","",_CDQdust_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J18="","",_CDQdust_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K18="","",_CDQdust_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L18="","",_CDQdust_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M18="","",_CDQdust_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N18="","",_CDQdust_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="27" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O18="","",_CDQdust_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P18="","",_CDQdust_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="36" t="str">
+      <c r="S22" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q18="","",_CDQdust_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B23" s="15">
+    <row r="23" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B23" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A19="","",_CDQdust_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B19="","",_CDQdust_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C19="","",_CDQdust_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D19="","",_CDQdust_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E19="","",_CDQdust_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F19="","",_CDQdust_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G19="","",_CDQdust_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H19="","",_CDQdust_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I19="","",_CDQdust_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J19="","",_CDQdust_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K19="","",_CDQdust_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L19="","",_CDQdust_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M19="","",_CDQdust_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N19="","",_CDQdust_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="27" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O19="","",_CDQdust_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="27" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P19="","",_CDQdust_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="36" t="str">
+      <c r="S23" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q19="","",_CDQdust_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B24" s="15">
+    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B24" s="14">
         <v>0.75</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A20="","",_CDQdust_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B20="","",_CDQdust_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C20="","",_CDQdust_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D20="","",_CDQdust_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E20="","",_CDQdust_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F20="","",_CDQdust_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G20="","",_CDQdust_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H20="","",_CDQdust_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I20="","",_CDQdust_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J20="","",_CDQdust_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K20="","",_CDQdust_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L20="","",_CDQdust_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M20="","",_CDQdust_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="27" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N20="","",_CDQdust_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="27" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O20="","",_CDQdust_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P20="","",_CDQdust_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="36" t="str">
+      <c r="S24" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q20="","",_CDQdust_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B25" s="15">
+    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B25" s="14">
         <v>0.791666666666667</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A21="","",_CDQdust_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B21="","",_CDQdust_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C21="","",_CDQdust_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D21="","",_CDQdust_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E21="","",_CDQdust_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F21="","",_CDQdust_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G21="","",_CDQdust_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H21="","",_CDQdust_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I21="","",_CDQdust_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J21="","",_CDQdust_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K21="","",_CDQdust_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L21="","",_CDQdust_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M21="","",_CDQdust_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="27" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N21="","",_CDQdust_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="27" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O21="","",_CDQdust_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="27" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P21="","",_CDQdust_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="36" t="str">
+      <c r="S25" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q21="","",_CDQdust_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B26" s="15">
+    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B26" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A22="","",_CDQdust_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B22="","",_CDQdust_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C22="","",_CDQdust_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D22="","",_CDQdust_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E22="","",_CDQdust_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F22="","",_CDQdust_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G22="","",_CDQdust_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H22="","",_CDQdust_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I22="","",_CDQdust_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J22="","",_CDQdust_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K22="","",_CDQdust_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L22="","",_CDQdust_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M22="","",_CDQdust_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="27" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N22="","",_CDQdust_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="27" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O22="","",_CDQdust_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="27" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P22="","",_CDQdust_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="36" t="str">
+      <c r="S26" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q22="","",_CDQdust_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B27" s="15">
+    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B27" s="14">
         <v>0.875</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A23="","",_CDQdust_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B23="","",_CDQdust_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C23="","",_CDQdust_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D23="","",_CDQdust_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E23="","",_CDQdust_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F23="","",_CDQdust_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G23="","",_CDQdust_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H23="","",_CDQdust_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I23="","",_CDQdust_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J23="","",_CDQdust_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K23="","",_CDQdust_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L23="","",_CDQdust_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M23="","",_CDQdust_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="27" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N23="","",_CDQdust_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="27" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O23="","",_CDQdust_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="27" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P23="","",_CDQdust_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="36" t="str">
+      <c r="S27" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q23="","",_CDQdust_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B28" s="15">
+    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B28" s="14">
         <v>0.916666666666667</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A24="","",_CDQdust_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B24="","",_CDQdust_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C24="","",_CDQdust_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D24="","",_CDQdust_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E24="","",_CDQdust_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F24="","",_CDQdust_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G24="","",_CDQdust_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H24="","",_CDQdust_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I24="","",_CDQdust_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J24="","",_CDQdust_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K24="","",_CDQdust_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L24="","",_CDQdust_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M24="","",_CDQdust_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N24="","",_CDQdust_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="27" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O24="","",_CDQdust_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="27" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P24="","",_CDQdust_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="36" t="str">
+      <c r="S28" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q24="","",_CDQdust_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B29" s="15">
+    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B29" s="14">
         <v>0.958333333333333</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A25="","",_CDQdust_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B25="","",_CDQdust_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C25="","",_CDQdust_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D25="","",_CDQdust_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E25="","",_CDQdust_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F25="","",_CDQdust_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G25="","",_CDQdust_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H25="","",_CDQdust_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I25="","",_CDQdust_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J25="","",_CDQdust_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K25="","",_CDQdust_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L25="","",_CDQdust_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M25="","",_CDQdust_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="27" t="str">
+      <c r="P29" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N25="","",_CDQdust_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="27" t="str">
+      <c r="Q29" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O25="","",_CDQdust_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P25="","",_CDQdust_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="36" t="str">
+      <c r="S29" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q25="","",_CDQdust_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B30" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="36"/>
+    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="37"/>
     </row>
-    <row r="31" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="36"/>
+    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="37"/>
     </row>
-    <row r="32" s="4" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="36"/>
+    <row r="32" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="37"/>
     </row>
-    <row r="33" s="4" customFormat="1" ht="16.5" spans="2:19">
-      <c r="B33" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="37"/>
+    <row r="33" s="1" customFormat="1" ht="16.5" spans="2:19">
+      <c r="B33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="38"/>
     </row>
-    <row r="34" s="4" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
-      <c r="B34" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="20" t="s">
+    <row r="34" s="1" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
+      <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="22"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="21"/>
     </row>
-    <row r="35" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="25"/>
+    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="24"/>
     </row>
-    <row r="37" s="4" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="40" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <row r="41" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <row r="46" s="4" customFormat="1" ht="15.6" customHeight="1"/>
-    <row r="53" s="4" customFormat="1" ht="44.1" customHeight="1"/>
-    <row r="59" s="4" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="65" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="4" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="90" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <row r="96" s="4" customFormat="1" ht="30" customHeight="1"/>
-    <row r="104" s="4" customFormat="1" ht="36.95" customHeight="1"/>
+    <row r="37" s="1" customFormat="1" ht="22.5" customHeight="1"/>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="41" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="46" s="1" customFormat="1" ht="15.6" customHeight="1"/>
+    <row r="53" s="1" customFormat="1" ht="44.1" customHeight="1"/>
+    <row r="59" s="1" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="65" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="70" s="1" customFormat="1" ht="16.5" customHeight="1"/>
+    <row r="90" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="96" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="104" s="1" customFormat="1" ht="36.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
@@ -4967,55 +4995,55 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="78.75" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_CDQdust_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -24,6 +22,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                                                                                                                                         </t>
     </r>
     <r>
@@ -692,11 +695,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -745,15 +749,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,6 +764,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,38 +830,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,57 +884,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,7 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +953,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,67 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,91 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,6 +1385,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1403,7 +1431,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,190 +1485,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1706,11 +1710,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2571,19 +2575,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2889,23 +2880,23 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="25" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="J2" s="25">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="25" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.75" spans="2:19">
       <c r="B3" s="6" t="s">
@@ -5050,4 +5041,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>6&amp;7#焦 CDQ除尘</t>
   </si>
@@ -25,55 +25,58 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                         </t>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
@@ -93,6 +96,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机轴温
@@ -104,6 +108,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机定子温度
@@ -113,24 +118,26 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>A</t>
-    </r>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机电流
@@ -140,7 +147,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -148,6 +155,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -162,6 +170,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷却水流量
@@ -171,50 +180,52 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风机轴温</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风机轴温</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -223,6 +234,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -233,6 +245,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴承振幅</t>
@@ -241,7 +254,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">       
 </t>
@@ -250,6 +263,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -258,24 +272,26 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mm/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>mm/s</t>
-    </r>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘器
@@ -288,6 +304,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘压差
@@ -297,33 +314,35 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Kpa</t>
-    </r>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>储气罐压力</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -332,6 +351,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -340,7 +360,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Mpa</t>
     </r>
@@ -348,6 +368,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -358,7 +379,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -367,6 +388,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -377,7 +399,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
@@ -386,6 +408,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（非驱动端）</t>
@@ -396,7 +419,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -404,6 +427,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -414,7 +438,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
@@ -423,6 +447,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向驱动端）</t>
@@ -433,7 +458,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
@@ -442,6 +467,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向非驱动端）</t>
@@ -452,7 +478,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
@@ -461,6 +487,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向驱动端）</t>
@@ -471,7 +498,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
@@ -480,6 +507,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向非驱动端）</t>
@@ -556,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -564,6 +592,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜</t>
@@ -573,6 +602,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -581,7 +611,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -591,7 +621,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -599,6 +629,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -608,6 +639,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -616,7 +648,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -626,7 +658,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -634,6 +666,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -643,6 +676,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -651,40 +685,42 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
+      <t>交班：</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                          </t>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                              </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交班：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -694,15 +730,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,208 +742,78 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,194 +826,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1387,251 +1100,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -1641,158 +1112,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1803,7 +1227,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1817,7 +1241,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2009,7 +1433,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -2201,7 +1625,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
@@ -2393,7 +1817,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
@@ -2827,19 +2251,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="8.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
@@ -2847,101 +2271,101 @@
     <col min="257" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="2:19">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="2:19">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="25">
-        <f>_metadata!B1</f>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="38">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="10" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36.75" spans="2:19">
-      <c r="B4" s="11"/>
+    <row r="4" spans="2:19" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="B4" s="31"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2957,9 +2381,9 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2978,12 +2402,12 @@
       <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="37"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="78.75" spans="2:19">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:19" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3038,8 +2462,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B6" s="14">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -3066,7 +2490,7 @@
         <f>IF(_CDQdust_day_hour!F2="","",_CDQdust_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G2="","",_CDQdust_day_hour!G2)</f>
         <v/>
       </c>
@@ -3102,18 +2526,18 @@
         <f>IF(_CDQdust_day_hour!O2="","",_CDQdust_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="34" t="str">
+      <c r="R6" s="14" t="str">
         <f>IF(_CDQdust_day_hour!P2="","",_CDQdust_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="35" t="str">
+      <c r="S6" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q2="","",_CDQdust_day_hour!Q2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B7" s="14">
-        <v>0.0416666666666667</v>
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="6">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A3="","",_CDQdust_day_hour!A3)</f>
@@ -3139,7 +2563,7 @@
         <f>IF(_CDQdust_day_hour!F3="","",_CDQdust_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G3="","",_CDQdust_day_hour!G3)</f>
         <v/>
       </c>
@@ -3175,18 +2599,18 @@
         <f>IF(_CDQdust_day_hour!O3="","",_CDQdust_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="36" t="str">
+      <c r="R7" s="16" t="str">
         <f>IF(_CDQdust_day_hour!P3="","",_CDQdust_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q3="","",_CDQdust_day_hour!Q3)</f>
         <v/>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B8" s="14">
-        <v>0.0833333333333333</v>
+    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="6">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A4="","",_CDQdust_day_hour!A4)</f>
@@ -3212,7 +2636,7 @@
         <f>IF(_CDQdust_day_hour!F4="","",_CDQdust_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G4="","",_CDQdust_day_hour!G4)</f>
         <v/>
       </c>
@@ -3252,13 +2676,13 @@
         <f>IF(_CDQdust_day_hour!P4="","",_CDQdust_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q4="","",_CDQdust_day_hour!Q4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B9" s="14">
+    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="6">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -3285,7 +2709,7 @@
         <f>IF(_CDQdust_day_hour!F5="","",_CDQdust_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G5="","",_CDQdust_day_hour!G5)</f>
         <v/>
       </c>
@@ -3325,14 +2749,14 @@
         <f>IF(_CDQdust_day_hour!P5="","",_CDQdust_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q5="","",_CDQdust_day_hour!Q5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B10" s="14">
-        <v>0.166666666666667</v>
+    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B10" s="6">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A6="","",_CDQdust_day_hour!A6)</f>
@@ -3358,7 +2782,7 @@
         <f>IF(_CDQdust_day_hour!F6="","",_CDQdust_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G6="","",_CDQdust_day_hour!G6)</f>
         <v/>
       </c>
@@ -3398,14 +2822,14 @@
         <f>IF(_CDQdust_day_hour!P6="","",_CDQdust_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q6="","",_CDQdust_day_hour!Q6)</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B11" s="14">
-        <v>0.208333333333333</v>
+    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="6">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A7="","",_CDQdust_day_hour!A7)</f>
@@ -3431,7 +2855,7 @@
         <f>IF(_CDQdust_day_hour!F7="","",_CDQdust_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G7="","",_CDQdust_day_hour!G7)</f>
         <v/>
       </c>
@@ -3471,13 +2895,13 @@
         <f>IF(_CDQdust_day_hour!P7="","",_CDQdust_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q7="","",_CDQdust_day_hour!Q7)</f>
         <v/>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B12" s="14">
+    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="6">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -3504,7 +2928,7 @@
         <f>IF(_CDQdust_day_hour!F8="","",_CDQdust_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G8="","",_CDQdust_day_hour!G8)</f>
         <v/>
       </c>
@@ -3544,14 +2968,14 @@
         <f>IF(_CDQdust_day_hour!P8="","",_CDQdust_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q8="","",_CDQdust_day_hour!Q8)</f>
         <v/>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B13" s="14">
-        <v>0.291666666666667</v>
+    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="6">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A9="","",_CDQdust_day_hour!A9)</f>
@@ -3577,7 +3001,7 @@
         <f>IF(_CDQdust_day_hour!F9="","",_CDQdust_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G9="","",_CDQdust_day_hour!G9)</f>
         <v/>
       </c>
@@ -3617,14 +3041,14 @@
         <f>IF(_CDQdust_day_hour!P9="","",_CDQdust_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q9="","",_CDQdust_day_hour!Q9)</f>
         <v/>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B14" s="14">
-        <v>0.333333333333333</v>
+    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="6">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A10="","",_CDQdust_day_hour!A10)</f>
@@ -3650,7 +3074,7 @@
         <f>IF(_CDQdust_day_hour!F10="","",_CDQdust_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G10="","",_CDQdust_day_hour!G10)</f>
         <v/>
       </c>
@@ -3690,13 +3114,13 @@
         <f>IF(_CDQdust_day_hour!P10="","",_CDQdust_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q10="","",_CDQdust_day_hour!Q10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B15" s="14">
+    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -3723,7 +3147,7 @@
         <f>IF(_CDQdust_day_hour!F11="","",_CDQdust_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G11="","",_CDQdust_day_hour!G11)</f>
         <v/>
       </c>
@@ -3763,14 +3187,14 @@
         <f>IF(_CDQdust_day_hour!P11="","",_CDQdust_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q11="","",_CDQdust_day_hour!Q11)</f>
         <v/>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B16" s="14">
-        <v>0.416666666666667</v>
+    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="6">
+        <v>0.41666666666666702</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A12="","",_CDQdust_day_hour!A12)</f>
@@ -3796,7 +3220,7 @@
         <f>IF(_CDQdust_day_hour!F12="","",_CDQdust_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G12="","",_CDQdust_day_hour!G12)</f>
         <v/>
       </c>
@@ -3836,14 +3260,14 @@
         <f>IF(_CDQdust_day_hour!P12="","",_CDQdust_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q12="","",_CDQdust_day_hour!Q12)</f>
         <v/>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B17" s="14">
-        <v>0.458333333333333</v>
+    <row r="17" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A13="","",_CDQdust_day_hour!A13)</f>
@@ -3869,7 +3293,7 @@
         <f>IF(_CDQdust_day_hour!F13="","",_CDQdust_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="11" t="str">
         <f>IF(_CDQdust_day_hour!G13="","",_CDQdust_day_hour!G13)</f>
         <v/>
       </c>
@@ -3909,1040 +3333,1046 @@
         <f>IF(_CDQdust_day_hour!P13="","",_CDQdust_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="15" t="str">
         <f>IF(_CDQdust_day_hour!Q13="","",_CDQdust_day_hour!Q13)</f>
         <v/>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B18" s="14">
+    <row r="18" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
         <v>0.5</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A14="","",_CDQdust_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="15" t="str">
+      <c r="D18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B14="","",_CDQdust_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C14="","",_CDQdust_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="15" t="str">
+      <c r="F18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D14="","",_CDQdust_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="15" t="str">
+      <c r="G18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E14="","",_CDQdust_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="15" t="str">
+      <c r="H18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F14="","",_CDQdust_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="15" t="str">
+      <c r="I18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G14="","",_CDQdust_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="15" t="str">
+      <c r="J18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H14="","",_CDQdust_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="15" t="str">
+      <c r="K18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I14="","",_CDQdust_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="15" t="str">
+      <c r="L18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J14="","",_CDQdust_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="15" t="str">
+      <c r="M18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K14="","",_CDQdust_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="15" t="str">
+      <c r="N18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L14="","",_CDQdust_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="15" t="str">
+      <c r="O18" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M14="","",_CDQdust_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="28" t="str">
+      <c r="P18" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N14="","",_CDQdust_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="28" t="str">
+      <c r="Q18" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O14="","",_CDQdust_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="14" t="str">
         <f>IF(_CDQdust_day_hour!P14="","",_CDQdust_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="37" t="str">
+      <c r="S18" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q14="","",_CDQdust_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B19" s="14">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C19" s="15" t="str">
+    <row r="19" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A15="","",_CDQdust_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="15" t="str">
+      <c r="D19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B15="","",_CDQdust_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C15="","",_CDQdust_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="15" t="str">
+      <c r="F19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D15="","",_CDQdust_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="15" t="str">
+      <c r="G19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E15="","",_CDQdust_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="15" t="str">
+      <c r="H19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F15="","",_CDQdust_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="15" t="str">
+      <c r="I19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G15="","",_CDQdust_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="15" t="str">
+      <c r="J19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H15="","",_CDQdust_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="15" t="str">
+      <c r="K19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I15="","",_CDQdust_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="15" t="str">
+      <c r="L19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J15="","",_CDQdust_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="15" t="str">
+      <c r="M19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K15="","",_CDQdust_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="15" t="str">
+      <c r="N19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L15="","",_CDQdust_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="15" t="str">
+      <c r="O19" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M15="","",_CDQdust_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="28" t="str">
+      <c r="P19" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N15="","",_CDQdust_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="28" t="str">
+      <c r="Q19" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O15="","",_CDQdust_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="36" t="str">
+      <c r="R19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!P15="","",_CDQdust_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="37" t="str">
+      <c r="S19" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q15="","",_CDQdust_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B20" s="14">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C20" s="15" t="str">
+    <row r="20" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A16="","",_CDQdust_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="15" t="str">
+      <c r="D20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B16="","",_CDQdust_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C16="","",_CDQdust_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="15" t="str">
+      <c r="F20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D16="","",_CDQdust_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="15" t="str">
+      <c r="G20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E16="","",_CDQdust_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="15" t="str">
+      <c r="H20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F16="","",_CDQdust_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="15" t="str">
+      <c r="I20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G16="","",_CDQdust_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="15" t="str">
+      <c r="J20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H16="","",_CDQdust_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="15" t="str">
+      <c r="K20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I16="","",_CDQdust_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="15" t="str">
+      <c r="L20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J16="","",_CDQdust_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="15" t="str">
+      <c r="M20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K16="","",_CDQdust_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="15" t="str">
+      <c r="N20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L16="","",_CDQdust_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="15" t="str">
+      <c r="O20" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M16="","",_CDQdust_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="28" t="str">
+      <c r="P20" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N16="","",_CDQdust_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="28" t="str">
+      <c r="Q20" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O16="","",_CDQdust_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P16="","",_CDQdust_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="37" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q16="","",_CDQdust_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B21" s="14">
+    <row r="21" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
         <v>0.625</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A17="","",_CDQdust_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="15" t="str">
+      <c r="D21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B17="","",_CDQdust_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C17="","",_CDQdust_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="15" t="str">
+      <c r="F21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D17="","",_CDQdust_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="15" t="str">
+      <c r="G21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E17="","",_CDQdust_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="15" t="str">
+      <c r="H21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F17="","",_CDQdust_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="15" t="str">
+      <c r="I21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G17="","",_CDQdust_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="J21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H17="","",_CDQdust_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="15" t="str">
+      <c r="K21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I17="","",_CDQdust_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J17="","",_CDQdust_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="15" t="str">
+      <c r="M21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K17="","",_CDQdust_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="15" t="str">
+      <c r="N21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L17="","",_CDQdust_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="15" t="str">
+      <c r="O21" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M17="","",_CDQdust_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="28" t="str">
+      <c r="P21" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N17="","",_CDQdust_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="28" t="str">
+      <c r="Q21" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O17="","",_CDQdust_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P17="","",_CDQdust_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="37" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q17="","",_CDQdust_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B22" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C22" s="15" t="str">
+    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A18="","",_CDQdust_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="15" t="str">
+      <c r="D22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B18="","",_CDQdust_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C18="","",_CDQdust_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="15" t="str">
+      <c r="F22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D18="","",_CDQdust_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="15" t="str">
+      <c r="G22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E18="","",_CDQdust_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="15" t="str">
+      <c r="H22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F18="","",_CDQdust_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="15" t="str">
+      <c r="I22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G18="","",_CDQdust_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="15" t="str">
+      <c r="J22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H18="","",_CDQdust_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="15" t="str">
+      <c r="K22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I18="","",_CDQdust_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="L22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J18="","",_CDQdust_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="15" t="str">
+      <c r="M22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K18="","",_CDQdust_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="15" t="str">
+      <c r="N22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L18="","",_CDQdust_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="15" t="str">
+      <c r="O22" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M18="","",_CDQdust_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="28" t="str">
+      <c r="P22" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N18="","",_CDQdust_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="28" t="str">
+      <c r="Q22" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O18="","",_CDQdust_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P18="","",_CDQdust_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="37" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q18="","",_CDQdust_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B23" s="14">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C23" s="15" t="str">
+    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A19="","",_CDQdust_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B19="","",_CDQdust_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C19="","",_CDQdust_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="15" t="str">
+      <c r="F23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D19="","",_CDQdust_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="15" t="str">
+      <c r="G23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E19="","",_CDQdust_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="15" t="str">
+      <c r="H23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F19="","",_CDQdust_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="15" t="str">
+      <c r="I23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G19="","",_CDQdust_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="15" t="str">
+      <c r="J23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H19="","",_CDQdust_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="15" t="str">
+      <c r="K23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I19="","",_CDQdust_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="15" t="str">
+      <c r="L23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J19="","",_CDQdust_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="15" t="str">
+      <c r="M23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K19="","",_CDQdust_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="15" t="str">
+      <c r="N23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L19="","",_CDQdust_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="15" t="str">
+      <c r="O23" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M19="","",_CDQdust_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="28" t="str">
+      <c r="P23" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N19="","",_CDQdust_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="28" t="str">
+      <c r="Q23" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O19="","",_CDQdust_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P19="","",_CDQdust_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="37" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q19="","",_CDQdust_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B24" s="14">
+    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
         <v>0.75</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A20="","",_CDQdust_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="15" t="str">
+      <c r="D24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B20="","",_CDQdust_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C20="","",_CDQdust_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="15" t="str">
+      <c r="F24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D20="","",_CDQdust_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="15" t="str">
+      <c r="G24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E20="","",_CDQdust_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="15" t="str">
+      <c r="H24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F20="","",_CDQdust_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="15" t="str">
+      <c r="I24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G20="","",_CDQdust_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="15" t="str">
+      <c r="J24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H20="","",_CDQdust_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="15" t="str">
+      <c r="K24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I20="","",_CDQdust_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="15" t="str">
+      <c r="L24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J20="","",_CDQdust_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="15" t="str">
+      <c r="M24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K20="","",_CDQdust_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="15" t="str">
+      <c r="N24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L20="","",_CDQdust_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="15" t="str">
+      <c r="O24" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M20="","",_CDQdust_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N20="","",_CDQdust_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O20="","",_CDQdust_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P20="","",_CDQdust_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="37" t="str">
+      <c r="S24" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q20="","",_CDQdust_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B25" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C25" s="15" t="str">
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A21="","",_CDQdust_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B21="","",_CDQdust_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C21="","",_CDQdust_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="15" t="str">
+      <c r="F25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D21="","",_CDQdust_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="15" t="str">
+      <c r="G25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E21="","",_CDQdust_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="15" t="str">
+      <c r="H25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F21="","",_CDQdust_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="15" t="str">
+      <c r="I25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G21="","",_CDQdust_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="15" t="str">
+      <c r="J25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H21="","",_CDQdust_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="15" t="str">
+      <c r="K25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I21="","",_CDQdust_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="15" t="str">
+      <c r="L25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J21="","",_CDQdust_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="15" t="str">
+      <c r="M25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K21="","",_CDQdust_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="15" t="str">
+      <c r="N25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L21="","",_CDQdust_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="15" t="str">
+      <c r="O25" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M21="","",_CDQdust_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="28" t="str">
+      <c r="P25" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N21="","",_CDQdust_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="28" t="str">
+      <c r="Q25" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O21="","",_CDQdust_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P21="","",_CDQdust_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="37" t="str">
+      <c r="S25" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q21="","",_CDQdust_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B26" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C26" s="15" t="str">
+    <row r="26" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A22="","",_CDQdust_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="15" t="str">
+      <c r="D26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B22="","",_CDQdust_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C22="","",_CDQdust_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="15" t="str">
+      <c r="F26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D22="","",_CDQdust_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="15" t="str">
+      <c r="G26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E22="","",_CDQdust_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="15" t="str">
+      <c r="H26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F22="","",_CDQdust_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="15" t="str">
+      <c r="I26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G22="","",_CDQdust_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="15" t="str">
+      <c r="J26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H22="","",_CDQdust_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="15" t="str">
+      <c r="K26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I22="","",_CDQdust_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="15" t="str">
+      <c r="L26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J22="","",_CDQdust_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="15" t="str">
+      <c r="M26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K22="","",_CDQdust_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="15" t="str">
+      <c r="N26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L22="","",_CDQdust_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="15" t="str">
+      <c r="O26" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M22="","",_CDQdust_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N22="","",_CDQdust_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="28" t="str">
+      <c r="Q26" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O22="","",_CDQdust_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P22="","",_CDQdust_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="37" t="str">
+      <c r="S26" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q22="","",_CDQdust_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B27" s="14">
+    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
         <v>0.875</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A23="","",_CDQdust_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B23="","",_CDQdust_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="15" t="str">
+      <c r="E27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C23="","",_CDQdust_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="15" t="str">
+      <c r="F27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D23="","",_CDQdust_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="15" t="str">
+      <c r="G27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E23="","",_CDQdust_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="15" t="str">
+      <c r="H27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F23="","",_CDQdust_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="15" t="str">
+      <c r="I27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G23="","",_CDQdust_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="15" t="str">
+      <c r="J27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H23="","",_CDQdust_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="15" t="str">
+      <c r="K27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I23="","",_CDQdust_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="15" t="str">
+      <c r="L27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J23="","",_CDQdust_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="15" t="str">
+      <c r="M27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K23="","",_CDQdust_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="15" t="str">
+      <c r="N27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L23="","",_CDQdust_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="15" t="str">
+      <c r="O27" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M23="","",_CDQdust_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P27" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N23="","",_CDQdust_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O23="","",_CDQdust_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P23="","",_CDQdust_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="37" t="str">
+      <c r="S27" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q23="","",_CDQdust_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B28" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C28" s="15" t="str">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A24="","",_CDQdust_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="15" t="str">
+      <c r="D28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B24="","",_CDQdust_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="15" t="str">
+      <c r="E28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C24="","",_CDQdust_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="15" t="str">
+      <c r="F28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D24="","",_CDQdust_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="15" t="str">
+      <c r="G28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E24="","",_CDQdust_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="15" t="str">
+      <c r="H28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F24="","",_CDQdust_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="15" t="str">
+      <c r="I28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G24="","",_CDQdust_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="15" t="str">
+      <c r="J28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H24="","",_CDQdust_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="15" t="str">
+      <c r="K28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I24="","",_CDQdust_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="15" t="str">
+      <c r="L28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J24="","",_CDQdust_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="15" t="str">
+      <c r="M28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K24="","",_CDQdust_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="15" t="str">
+      <c r="N28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L24="","",_CDQdust_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="15" t="str">
+      <c r="O28" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M24="","",_CDQdust_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N24="","",_CDQdust_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O24="","",_CDQdust_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P24="","",_CDQdust_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q24="","",_CDQdust_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B29" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C29" s="15" t="str">
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!A25="","",_CDQdust_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!B25="","",_CDQdust_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="15" t="str">
+      <c r="E29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!C25="","",_CDQdust_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="15" t="str">
+      <c r="F29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!D25="","",_CDQdust_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="15" t="str">
+      <c r="G29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!E25="","",_CDQdust_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="15" t="str">
+      <c r="H29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!F25="","",_CDQdust_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="15" t="str">
+      <c r="I29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!G25="","",_CDQdust_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="15" t="str">
+      <c r="J29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!H25="","",_CDQdust_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="15" t="str">
+      <c r="K29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!I25="","",_CDQdust_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="15" t="str">
+      <c r="L29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!J25="","",_CDQdust_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="15" t="str">
+      <c r="M29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!K25="","",_CDQdust_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="15" t="str">
+      <c r="N29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!L25="","",_CDQdust_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="15" t="str">
+      <c r="O29" s="7" t="str">
         <f>IF(_CDQdust_day_hour!M25="","",_CDQdust_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="28" t="str">
+      <c r="P29" s="12" t="str">
         <f>IF(_CDQdust_day_hour!N25="","",_CDQdust_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="28" t="str">
+      <c r="Q29" s="12" t="str">
         <f>IF(_CDQdust_day_hour!O25="","",_CDQdust_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R29" s="12" t="str">
         <f>IF(_CDQdust_day_hour!P25="","",_CDQdust_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="37" t="str">
+      <c r="S29" s="17" t="str">
         <f>IF(_CDQdust_day_hour!Q25="","",_CDQdust_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="37"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="17"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B31" s="16" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="37"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="17"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B32" s="16" t="s">
+    <row r="32" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="37"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="17"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="2:19">
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="38"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="18"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="2:19" ht="71.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="19" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="19" t="s">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="21"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="22" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="22" t="s">
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="24"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="41" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="46" s="1" customFormat="1" ht="15.6" customHeight="1"/>
-    <row r="53" s="1" customFormat="1" ht="44.1" customHeight="1"/>
-    <row r="59" s="1" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="65" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="1" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="90" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="96" s="1" customFormat="1" ht="30" customHeight="1"/>
-    <row r="104" s="1" customFormat="1" ht="36.95" customHeight="1"/>
+    <row r="37" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="44.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="41.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="O2:S2"/>
@@ -4950,12 +4380,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -4964,27 +4388,26 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="78.75" spans="1:17">
+    <row r="1" spans="1:17" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -5038,23 +4461,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>6&amp;7#焦 CDQ除尘</t>
   </si>
@@ -25,7 +25,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                         </t>
     </r>
@@ -33,7 +33,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -42,7 +41,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -50,7 +49,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -59,7 +57,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -67,7 +65,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -76,7 +73,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
@@ -96,7 +93,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机轴温
@@ -108,7 +104,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机定子温度
@@ -118,7 +113,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -126,7 +121,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -137,7 +131,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机电流
@@ -147,7 +140,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -155,7 +148,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -170,7 +162,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷却水流量
@@ -180,7 +171,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -189,7 +180,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -197,7 +188,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -205,7 +196,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -216,7 +206,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴温</t>
@@ -225,7 +214,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -234,7 +223,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -245,7 +233,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴承振幅</t>
@@ -254,7 +241,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       
 </t>
@@ -263,7 +250,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -272,7 +258,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>mm/s</t>
     </r>
@@ -280,7 +266,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -291,7 +276,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘器
@@ -304,7 +288,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘压差
@@ -314,7 +297,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Kpa</t>
     </r>
@@ -322,7 +305,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -333,7 +315,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>储气罐压力</t>
@@ -342,7 +323,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -351,7 +332,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -360,7 +340,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Mpa</t>
     </r>
@@ -368,7 +348,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -379,7 +358,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -388,7 +367,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -399,7 +377,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
@@ -408,7 +386,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（非驱动端）</t>
@@ -419,7 +396,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -427,7 +404,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -438,7 +414,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
@@ -447,7 +423,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向驱动端）</t>
@@ -458,7 +433,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
@@ -467,7 +442,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向非驱动端）</t>
@@ -478,7 +452,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
@@ -487,7 +461,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向驱动端）</t>
@@ -498,7 +471,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
@@ -507,7 +480,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向非驱动端）</t>
@@ -584,7 +556,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -592,7 +564,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜</t>
@@ -602,7 +573,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -611,7 +581,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -621,7 +591,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -629,7 +599,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -639,7 +608,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -648,7 +616,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -658,7 +626,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -666,7 +634,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -676,7 +643,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -685,7 +651,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -695,7 +661,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -703,7 +669,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -712,7 +677,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -720,7 +685,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -730,8 +694,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,78 +712,213 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,8 +931,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1047,6 +1338,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1100,9 +1400,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -1112,111 +1654,158 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1227,7 +1816,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1241,14 +1830,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13271500" y="7783195"/>
+          <a:off x="13271500" y="7821295"/>
           <a:ext cx="4516120" cy="870585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1433,14 +2022,14 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7573645"/>
+          <a:off x="14585950" y="7611745"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1625,14 +2214,14 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7573645"/>
+          <a:off x="14585950" y="7611745"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1817,14 +2406,14 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7573645"/>
+          <a:off x="14585950" y="7611745"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2251,19 +2840,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="13" width="8.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
@@ -2271,101 +2860,101 @@
     <col min="257" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="27" spans="2:19">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="19.5" spans="2:19">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="38">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="25">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="20" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+    <row r="3" ht="15.75" spans="2:19">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="32" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="B4" s="31"/>
+    <row r="4" ht="36.75" spans="2:19">
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2381,9 +2970,9 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2402,12 +2991,12 @@
       <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="37"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
     </row>
-    <row r="5" spans="2:19" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+    <row r="5" ht="78.75" spans="2:19">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2462,8 +3051,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+    <row r="6" ht="15" customHeight="1" spans="2:19">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -2490,7 +3079,7 @@
         <f>IF(_CDQdust_day_hour!F2="","",_CDQdust_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="I6" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G2="","",_CDQdust_day_hour!G2)</f>
         <v/>
       </c>
@@ -2526,18 +3115,18 @@
         <f>IF(_CDQdust_day_hour!O2="","",_CDQdust_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="34" t="str">
         <f>IF(_CDQdust_day_hour!P2="","",_CDQdust_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="15" t="str">
+      <c r="S6" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q2="","",_CDQdust_day_hour!Q2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
-        <v>4.1666666666666699E-2</v>
+    <row r="7" ht="15.75" spans="2:19">
+      <c r="B7" s="14">
+        <v>0.0416666666666667</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A3="","",_CDQdust_day_hour!A3)</f>
@@ -2563,7 +3152,7 @@
         <f>IF(_CDQdust_day_hour!F3="","",_CDQdust_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="I7" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G3="","",_CDQdust_day_hour!G3)</f>
         <v/>
       </c>
@@ -2599,18 +3188,18 @@
         <f>IF(_CDQdust_day_hour!O3="","",_CDQdust_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="16" t="str">
+      <c r="R7" s="36" t="str">
         <f>IF(_CDQdust_day_hour!P3="","",_CDQdust_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="15" t="str">
+      <c r="S7" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q3="","",_CDQdust_day_hour!Q3)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="6">
-        <v>8.3333333333333301E-2</v>
+    <row r="8" ht="15.75" spans="2:19">
+      <c r="B8" s="14">
+        <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A4="","",_CDQdust_day_hour!A4)</f>
@@ -2636,7 +3225,7 @@
         <f>IF(_CDQdust_day_hour!F4="","",_CDQdust_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G4="","",_CDQdust_day_hour!G4)</f>
         <v/>
       </c>
@@ -2676,13 +3265,13 @@
         <f>IF(_CDQdust_day_hour!P4="","",_CDQdust_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="15" t="str">
+      <c r="S8" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q4="","",_CDQdust_day_hour!Q4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="6">
+    <row r="9" ht="15.75" spans="2:19">
+      <c r="B9" s="14">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -2709,7 +3298,7 @@
         <f>IF(_CDQdust_day_hour!F5="","",_CDQdust_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G5="","",_CDQdust_day_hour!G5)</f>
         <v/>
       </c>
@@ -2749,14 +3338,14 @@
         <f>IF(_CDQdust_day_hour!P5="","",_CDQdust_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="15" t="str">
+      <c r="S9" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q5="","",_CDQdust_day_hour!Q5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="6">
-        <v>0.16666666666666699</v>
+    <row r="10" ht="15.75" spans="2:19">
+      <c r="B10" s="14">
+        <v>0.166666666666667</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A6="","",_CDQdust_day_hour!A6)</f>
@@ -2782,7 +3371,7 @@
         <f>IF(_CDQdust_day_hour!F6="","",_CDQdust_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I10" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G6="","",_CDQdust_day_hour!G6)</f>
         <v/>
       </c>
@@ -2822,14 +3411,14 @@
         <f>IF(_CDQdust_day_hour!P6="","",_CDQdust_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="15" t="str">
+      <c r="S10" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q6="","",_CDQdust_day_hour!Q6)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
-        <v>0.20833333333333301</v>
+    <row r="11" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B11" s="14">
+        <v>0.208333333333333</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A7="","",_CDQdust_day_hour!A7)</f>
@@ -2855,7 +3444,7 @@
         <f>IF(_CDQdust_day_hour!F7="","",_CDQdust_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G7="","",_CDQdust_day_hour!G7)</f>
         <v/>
       </c>
@@ -2895,13 +3484,13 @@
         <f>IF(_CDQdust_day_hour!P7="","",_CDQdust_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="15" t="str">
+      <c r="S11" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q7="","",_CDQdust_day_hour!Q7)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="6">
+    <row r="12" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B12" s="14">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -2928,7 +3517,7 @@
         <f>IF(_CDQdust_day_hour!F8="","",_CDQdust_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G8="","",_CDQdust_day_hour!G8)</f>
         <v/>
       </c>
@@ -2968,14 +3557,14 @@
         <f>IF(_CDQdust_day_hour!P8="","",_CDQdust_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="15" t="str">
+      <c r="S12" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q8="","",_CDQdust_day_hour!Q8)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6">
-        <v>0.29166666666666702</v>
+    <row r="13" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B13" s="14">
+        <v>0.291666666666667</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A9="","",_CDQdust_day_hour!A9)</f>
@@ -3001,7 +3590,7 @@
         <f>IF(_CDQdust_day_hour!F9="","",_CDQdust_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I13" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G9="","",_CDQdust_day_hour!G9)</f>
         <v/>
       </c>
@@ -3041,14 +3630,14 @@
         <f>IF(_CDQdust_day_hour!P9="","",_CDQdust_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="15" t="str">
+      <c r="S13" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q9="","",_CDQdust_day_hour!Q9)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
-        <v>0.33333333333333298</v>
+    <row r="14" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B14" s="14">
+        <v>0.333333333333333</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A10="","",_CDQdust_day_hour!A10)</f>
@@ -3074,7 +3663,7 @@
         <f>IF(_CDQdust_day_hour!F10="","",_CDQdust_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="11" t="str">
+      <c r="I14" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G10="","",_CDQdust_day_hour!G10)</f>
         <v/>
       </c>
@@ -3114,13 +3703,13 @@
         <f>IF(_CDQdust_day_hour!P10="","",_CDQdust_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="str">
+      <c r="S14" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q10="","",_CDQdust_day_hour!Q10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+    <row r="15" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B15" s="14">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -3147,7 +3736,7 @@
         <f>IF(_CDQdust_day_hour!F11="","",_CDQdust_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="11" t="str">
+      <c r="I15" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G11="","",_CDQdust_day_hour!G11)</f>
         <v/>
       </c>
@@ -3187,14 +3776,14 @@
         <f>IF(_CDQdust_day_hour!P11="","",_CDQdust_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="str">
+      <c r="S15" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q11="","",_CDQdust_day_hour!Q11)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="6">
-        <v>0.41666666666666702</v>
+    <row r="16" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B16" s="14">
+        <v>0.416666666666667</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A12="","",_CDQdust_day_hour!A12)</f>
@@ -3220,7 +3809,7 @@
         <f>IF(_CDQdust_day_hour!F12="","",_CDQdust_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="11" t="str">
+      <c r="I16" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G12="","",_CDQdust_day_hour!G12)</f>
         <v/>
       </c>
@@ -3260,14 +3849,14 @@
         <f>IF(_CDQdust_day_hour!P12="","",_CDQdust_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="str">
+      <c r="S16" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q12="","",_CDQdust_day_hour!Q12)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
-        <v>0.45833333333333298</v>
+    <row r="17" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B17" s="14">
+        <v>0.458333333333333</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(_CDQdust_day_hour!A13="","",_CDQdust_day_hour!A13)</f>
@@ -3293,7 +3882,7 @@
         <f>IF(_CDQdust_day_hour!F13="","",_CDQdust_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="11" t="str">
+      <c r="I17" s="27" t="str">
         <f>IF(_CDQdust_day_hour!G13="","",_CDQdust_day_hour!G13)</f>
         <v/>
       </c>
@@ -3333,1046 +3922,1040 @@
         <f>IF(_CDQdust_day_hour!P13="","",_CDQdust_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="str">
+      <c r="S17" s="35" t="str">
         <f>IF(_CDQdust_day_hour!Q13="","",_CDQdust_day_hour!Q13)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+    <row r="18" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B18" s="14">
         <v>0.5</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A14="","",_CDQdust_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B14="","",_CDQdust_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C14="","",_CDQdust_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="7" t="str">
+      <c r="F18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D14="","",_CDQdust_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="7" t="str">
+      <c r="G18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E14="","",_CDQdust_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="7" t="str">
+      <c r="H18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F14="","",_CDQdust_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G14="","",_CDQdust_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="J18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H14="","",_CDQdust_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="K18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I14="","",_CDQdust_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="L18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J14="","",_CDQdust_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="7" t="str">
+      <c r="M18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K14="","",_CDQdust_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="7" t="str">
+      <c r="N18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L14="","",_CDQdust_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="7" t="str">
+      <c r="O18" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M14="","",_CDQdust_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="12" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N14="","",_CDQdust_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="12" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O14="","",_CDQdust_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="14" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(_CDQdust_day_hour!P14="","",_CDQdust_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q14="","",_CDQdust_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C19" s="7" t="str">
+    <row r="19" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B19" s="14">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A15="","",_CDQdust_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B15="","",_CDQdust_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C15="","",_CDQdust_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="7" t="str">
+      <c r="F19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D15="","",_CDQdust_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="G19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E15="","",_CDQdust_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="H19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F15="","",_CDQdust_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="7" t="str">
+      <c r="I19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G15="","",_CDQdust_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H15="","",_CDQdust_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="7" t="str">
+      <c r="K19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I15="","",_CDQdust_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="L19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J15="","",_CDQdust_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="7" t="str">
+      <c r="M19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K15="","",_CDQdust_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="7" t="str">
+      <c r="N19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L15="","",_CDQdust_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="7" t="str">
+      <c r="O19" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M15="","",_CDQdust_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="12" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N15="","",_CDQdust_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="12" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O15="","",_CDQdust_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_CDQdust_day_hour!P15="","",_CDQdust_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q15="","",_CDQdust_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C20" s="7" t="str">
+    <row r="20" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B20" s="14">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A16="","",_CDQdust_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B16="","",_CDQdust_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C16="","",_CDQdust_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="F20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D16="","",_CDQdust_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="7" t="str">
+      <c r="G20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E16="","",_CDQdust_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="7" t="str">
+      <c r="H20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F16="","",_CDQdust_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="7" t="str">
+      <c r="I20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G16="","",_CDQdust_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="J20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H16="","",_CDQdust_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="7" t="str">
+      <c r="K20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I16="","",_CDQdust_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="L20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J16="","",_CDQdust_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="7" t="str">
+      <c r="M20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K16="","",_CDQdust_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="7" t="str">
+      <c r="N20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L16="","",_CDQdust_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="7" t="str">
+      <c r="O20" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M16="","",_CDQdust_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="12" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N16="","",_CDQdust_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="12" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O16="","",_CDQdust_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="12" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P16="","",_CDQdust_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S20" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q16="","",_CDQdust_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+    <row r="21" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B21" s="14">
         <v>0.625</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A17="","",_CDQdust_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B17="","",_CDQdust_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C17="","",_CDQdust_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="F21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D17="","",_CDQdust_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="7" t="str">
+      <c r="G21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E17="","",_CDQdust_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="7" t="str">
+      <c r="H21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F17="","",_CDQdust_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G17="","",_CDQdust_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="J21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H17="","",_CDQdust_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="7" t="str">
+      <c r="K21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I17="","",_CDQdust_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="7" t="str">
+      <c r="L21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J17="","",_CDQdust_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="7" t="str">
+      <c r="M21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K17="","",_CDQdust_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="7" t="str">
+      <c r="N21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L17="","",_CDQdust_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="7" t="str">
+      <c r="O21" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M17="","",_CDQdust_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="12" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N17="","",_CDQdust_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="12" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O17="","",_CDQdust_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="12" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P17="","",_CDQdust_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S21" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q17="","",_CDQdust_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C22" s="7" t="str">
+    <row r="22" ht="15" customHeight="1" spans="2:19">
+      <c r="B22" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A18="","",_CDQdust_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B18="","",_CDQdust_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C18="","",_CDQdust_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="7" t="str">
+      <c r="F22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D18="","",_CDQdust_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="7" t="str">
+      <c r="G22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E18="","",_CDQdust_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="7" t="str">
+      <c r="H22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F18="","",_CDQdust_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="7" t="str">
+      <c r="I22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G18="","",_CDQdust_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="7" t="str">
+      <c r="J22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H18="","",_CDQdust_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="K22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I18="","",_CDQdust_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="L22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J18="","",_CDQdust_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="7" t="str">
+      <c r="M22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K18="","",_CDQdust_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="7" t="str">
+      <c r="N22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L18="","",_CDQdust_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="7" t="str">
+      <c r="O22" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M18="","",_CDQdust_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="12" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N18="","",_CDQdust_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="12" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O18="","",_CDQdust_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="12" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P18="","",_CDQdust_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S22" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q18="","",_CDQdust_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C23" s="7" t="str">
+    <row r="23" ht="15" customHeight="1" spans="2:19">
+      <c r="B23" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A19="","",_CDQdust_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B19="","",_CDQdust_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C19="","",_CDQdust_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="7" t="str">
+      <c r="F23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D19="","",_CDQdust_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="7" t="str">
+      <c r="G23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E19="","",_CDQdust_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="7" t="str">
+      <c r="H23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F19="","",_CDQdust_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="I23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G19="","",_CDQdust_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="7" t="str">
+      <c r="J23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H19="","",_CDQdust_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="7" t="str">
+      <c r="K23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I19="","",_CDQdust_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="7" t="str">
+      <c r="L23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J19="","",_CDQdust_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="7" t="str">
+      <c r="M23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K19="","",_CDQdust_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="7" t="str">
+      <c r="N23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L19="","",_CDQdust_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="7" t="str">
+      <c r="O23" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M19="","",_CDQdust_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="12" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N19="","",_CDQdust_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="12" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O19="","",_CDQdust_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="12" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P19="","",_CDQdust_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S23" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q19="","",_CDQdust_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+    <row r="24" ht="15" customHeight="1" spans="2:19">
+      <c r="B24" s="14">
         <v>0.75</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A20="","",_CDQdust_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B20="","",_CDQdust_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C20="","",_CDQdust_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="7" t="str">
+      <c r="F24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D20="","",_CDQdust_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="7" t="str">
+      <c r="G24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E20="","",_CDQdust_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="7" t="str">
+      <c r="H24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F20="","",_CDQdust_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G20="","",_CDQdust_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="7" t="str">
+      <c r="J24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H20="","",_CDQdust_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="7" t="str">
+      <c r="K24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I20="","",_CDQdust_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="7" t="str">
+      <c r="L24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J20="","",_CDQdust_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="7" t="str">
+      <c r="M24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K20="","",_CDQdust_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="7" t="str">
+      <c r="N24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L20="","",_CDQdust_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="7" t="str">
+      <c r="O24" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M20="","",_CDQdust_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="12" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N20="","",_CDQdust_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="12" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O20="","",_CDQdust_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="12" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P20="","",_CDQdust_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S24" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q20="","",_CDQdust_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C25" s="7" t="str">
+    <row r="25" ht="15" customHeight="1" spans="2:19">
+      <c r="B25" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A21="","",_CDQdust_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B21="","",_CDQdust_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C21="","",_CDQdust_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D21="","",_CDQdust_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="7" t="str">
+      <c r="G25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E21="","",_CDQdust_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="H25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F21="","",_CDQdust_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="7" t="str">
+      <c r="I25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G21="","",_CDQdust_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="7" t="str">
+      <c r="J25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H21="","",_CDQdust_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="7" t="str">
+      <c r="K25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I21="","",_CDQdust_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J21="","",_CDQdust_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="7" t="str">
+      <c r="M25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K21="","",_CDQdust_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="7" t="str">
+      <c r="N25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L21="","",_CDQdust_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="7" t="str">
+      <c r="O25" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M21="","",_CDQdust_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="12" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N21="","",_CDQdust_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="12" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O21="","",_CDQdust_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="12" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P21="","",_CDQdust_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q21="","",_CDQdust_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C26" s="7" t="str">
+    <row r="26" ht="15" customHeight="1" spans="2:19">
+      <c r="B26" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A22="","",_CDQdust_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B22="","",_CDQdust_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C22="","",_CDQdust_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="7" t="str">
+      <c r="F26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D22="","",_CDQdust_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="7" t="str">
+      <c r="G26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E22="","",_CDQdust_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="7" t="str">
+      <c r="H26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F22="","",_CDQdust_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="7" t="str">
+      <c r="I26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G22="","",_CDQdust_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="7" t="str">
+      <c r="J26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H22="","",_CDQdust_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="7" t="str">
+      <c r="K26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I22="","",_CDQdust_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="7" t="str">
+      <c r="L26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J22="","",_CDQdust_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="7" t="str">
+      <c r="M26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K22="","",_CDQdust_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="7" t="str">
+      <c r="N26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L22="","",_CDQdust_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="7" t="str">
+      <c r="O26" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M22="","",_CDQdust_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="12" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N22="","",_CDQdust_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="12" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O22="","",_CDQdust_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="12" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P22="","",_CDQdust_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q22="","",_CDQdust_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+    <row r="27" ht="15" customHeight="1" spans="2:19">
+      <c r="B27" s="14">
         <v>0.875</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A23="","",_CDQdust_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B23="","",_CDQdust_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C23="","",_CDQdust_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="7" t="str">
+      <c r="F27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D23="","",_CDQdust_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="7" t="str">
+      <c r="G27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E23="","",_CDQdust_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="7" t="str">
+      <c r="H27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F23="","",_CDQdust_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="7" t="str">
+      <c r="I27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G23="","",_CDQdust_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="7" t="str">
+      <c r="J27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H23="","",_CDQdust_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="7" t="str">
+      <c r="K27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I23="","",_CDQdust_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="7" t="str">
+      <c r="L27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J23="","",_CDQdust_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="7" t="str">
+      <c r="M27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K23="","",_CDQdust_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="7" t="str">
+      <c r="N27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L23="","",_CDQdust_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="7" t="str">
+      <c r="O27" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M23="","",_CDQdust_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="12" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N23="","",_CDQdust_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="12" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O23="","",_CDQdust_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="12" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P23="","",_CDQdust_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S27" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q23="","",_CDQdust_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C28" s="7" t="str">
+    <row r="28" ht="15" customHeight="1" spans="2:19">
+      <c r="B28" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A24="","",_CDQdust_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B24="","",_CDQdust_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C24="","",_CDQdust_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="7" t="str">
+      <c r="F28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D24="","",_CDQdust_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="7" t="str">
+      <c r="G28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E24="","",_CDQdust_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="7" t="str">
+      <c r="H28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F24="","",_CDQdust_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="7" t="str">
+      <c r="I28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G24="","",_CDQdust_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="7" t="str">
+      <c r="J28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H24="","",_CDQdust_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="7" t="str">
+      <c r="K28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I24="","",_CDQdust_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="7" t="str">
+      <c r="L28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J24="","",_CDQdust_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="7" t="str">
+      <c r="M28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K24="","",_CDQdust_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="7" t="str">
+      <c r="N28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L24="","",_CDQdust_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="7" t="str">
+      <c r="O28" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M24="","",_CDQdust_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="12" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N24="","",_CDQdust_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="12" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O24="","",_CDQdust_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="12" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P24="","",_CDQdust_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S28" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q24="","",_CDQdust_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C29" s="7" t="str">
+    <row r="29" ht="15" customHeight="1" spans="2:19">
+      <c r="B29" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!A25="","",_CDQdust_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!B25="","",_CDQdust_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!C25="","",_CDQdust_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!D25="","",_CDQdust_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="7" t="str">
+      <c r="G29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!E25="","",_CDQdust_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="7" t="str">
+      <c r="H29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!F25="","",_CDQdust_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="7" t="str">
+      <c r="I29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!G25="","",_CDQdust_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="7" t="str">
+      <c r="J29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!H25="","",_CDQdust_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="7" t="str">
+      <c r="K29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!I25="","",_CDQdust_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="7" t="str">
+      <c r="L29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!J25="","",_CDQdust_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="7" t="str">
+      <c r="M29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!K25="","",_CDQdust_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="7" t="str">
+      <c r="N29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!L25="","",_CDQdust_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="7" t="str">
+      <c r="O29" s="15" t="str">
         <f>IF(_CDQdust_day_hour!M25="","",_CDQdust_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="12" t="str">
+      <c r="P29" s="28" t="str">
         <f>IF(_CDQdust_day_hour!N25="","",_CDQdust_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="12" t="str">
+      <c r="Q29" s="28" t="str">
         <f>IF(_CDQdust_day_hour!O25="","",_CDQdust_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="12" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_CDQdust_day_hour!P25="","",_CDQdust_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S29" s="37" t="str">
         <f>IF(_CDQdust_day_hour!Q25="","",_CDQdust_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" ht="15" customHeight="1" spans="2:19">
+      <c r="B30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="37"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+    <row r="31" ht="15" customHeight="1" spans="2:19">
+      <c r="B31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="37"/>
     </row>
-    <row r="32" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="37"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="33" ht="16.5" spans="2:19">
+      <c r="B33" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="38"/>
     </row>
-    <row r="34" spans="2:19" ht="71.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24" t="s">
+    <row r="34" ht="71.45" customHeight="1" spans="2:19">
+      <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="24" t="s">
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="26"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="21"/>
     </row>
-    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="27" t="s">
+    <row r="35" ht="15" customHeight="1" spans="2:19">
+      <c r="B35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="27" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="29"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="24"/>
     </row>
-    <row r="37" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="44.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="41.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="22.5" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="46" ht="15.6" customHeight="1"/>
+    <row r="53" ht="44.1" customHeight="1"/>
+    <row r="59" ht="41.1" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="96" ht="30" customHeight="1"/>
+    <row r="104" ht="36.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="O2:S2"/>
@@ -4380,6 +4963,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -4388,26 +4977,27 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="1" ht="78.75" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4461,20 +5051,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
@@ -696,9 +696,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -753,23 +753,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,23 +782,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +799,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,57 +819,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,10 +843,56 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -933,19 +933,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,61 +975,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,13 +1047,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,61 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,24 +1398,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1434,26 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1465,6 +1427,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,16 +1480,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,133 +1516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2893,9 +2893,9 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="25">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="J2" s="25" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="5" t="s">

--- a/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-CDQ除尘报表设计.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_CDQdust_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>6&amp;7#焦 CDQ除尘</t>
   </si>
@@ -77,12 +76,6 @@
       </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>SGSSGBSMCSA35G00501A</t>
   </si>
   <si>
     <t xml:space="preserve">         参数
@@ -696,12 +689,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,11 +728,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -752,9 +740,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,39 +762,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,42 +793,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,16 +809,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,6 +844,43 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -933,6 +921,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -945,13 +945,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +1011,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,126 +1101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1338,15 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1398,21 +1377,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1451,6 +1415,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1484,15 +1472,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1504,10 +1483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,140 +1495,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1660,11 +1639,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1723,13 +1705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1737,22 +1713,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1837,7 +1813,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13271500" y="7821295"/>
+          <a:off x="13271500" y="7783195"/>
           <a:ext cx="4516120" cy="870585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2029,7 +2005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7611745"/>
+          <a:off x="14585950" y="7573645"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2221,7 +2197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7611745"/>
+          <a:off x="14585950" y="7573645"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2413,7 +2389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7611745"/>
+          <a:off x="14585950" y="7573645"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2849,117 +2825,110 @@
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="13" width="8.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.625" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="1"/>
+    <col min="1" max="13" width="8.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10" style="4" customWidth="1"/>
+    <col min="15" max="256" width="8.625" style="4" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="2:19">
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="27" spans="2:19">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
-    <row r="2" ht="19.5" spans="2:19">
-      <c r="B2" s="5" t="s">
+    <row r="2" s="4" customFormat="1" ht="16.5" spans="2:19">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="25" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="26" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="15.75" spans="2:19">
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="30" t="s">
+    <row r="4" s="4" customFormat="1" ht="36.75" spans="2:19">
+      <c r="B4" s="12"/>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="36.75" spans="2:19">
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2970,89 +2939,89 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="78.75" spans="2:19">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" ht="78.75" spans="2:19">
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="2:19">
-      <c r="B6" s="14">
+    <row r="6" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B6" s="15">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -3079,7 +3048,7 @@
         <f>IF(_CDQdust_day_hour!F2="","",_CDQdust_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G2="","",_CDQdust_day_hour!G2)</f>
         <v/>
       </c>
@@ -3115,17 +3084,17 @@
         <f>IF(_CDQdust_day_hour!O2="","",_CDQdust_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="34" t="str">
+      <c r="R6" s="33" t="str">
         <f>IF(_CDQdust_day_hour!P2="","",_CDQdust_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="35" t="str">
+      <c r="S6" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q2="","",_CDQdust_day_hour!Q2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:19">
-      <c r="B7" s="14">
+    <row r="7" s="4" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B7" s="15">
         <v>0.0416666666666667</v>
       </c>
       <c r="C7" s="2" t="str">
@@ -3152,7 +3121,7 @@
         <f>IF(_CDQdust_day_hour!F3="","",_CDQdust_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G3="","",_CDQdust_day_hour!G3)</f>
         <v/>
       </c>
@@ -3188,17 +3157,17 @@
         <f>IF(_CDQdust_day_hour!O3="","",_CDQdust_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="36" t="str">
+      <c r="R7" s="35" t="str">
         <f>IF(_CDQdust_day_hour!P3="","",_CDQdust_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q3="","",_CDQdust_day_hour!Q3)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:19">
-      <c r="B8" s="14">
+    <row r="8" s="4" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B8" s="15">
         <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="2" t="str">
@@ -3225,7 +3194,7 @@
         <f>IF(_CDQdust_day_hour!F4="","",_CDQdust_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G4="","",_CDQdust_day_hour!G4)</f>
         <v/>
       </c>
@@ -3265,13 +3234,13 @@
         <f>IF(_CDQdust_day_hour!P4="","",_CDQdust_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q4="","",_CDQdust_day_hour!Q4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:19">
-      <c r="B9" s="14">
+    <row r="9" s="4" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B9" s="15">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -3298,7 +3267,7 @@
         <f>IF(_CDQdust_day_hour!F5="","",_CDQdust_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G5="","",_CDQdust_day_hour!G5)</f>
         <v/>
       </c>
@@ -3338,13 +3307,13 @@
         <f>IF(_CDQdust_day_hour!P5="","",_CDQdust_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q5="","",_CDQdust_day_hour!Q5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:19">
-      <c r="B10" s="14">
+    <row r="10" s="4" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B10" s="15">
         <v>0.166666666666667</v>
       </c>
       <c r="C10" s="2" t="str">
@@ -3371,7 +3340,7 @@
         <f>IF(_CDQdust_day_hour!F6="","",_CDQdust_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G6="","",_CDQdust_day_hour!G6)</f>
         <v/>
       </c>
@@ -3411,13 +3380,13 @@
         <f>IF(_CDQdust_day_hour!P6="","",_CDQdust_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q6="","",_CDQdust_day_hour!Q6)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B11" s="14">
+    <row r="11" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B11" s="15">
         <v>0.208333333333333</v>
       </c>
       <c r="C11" s="2" t="str">
@@ -3444,7 +3413,7 @@
         <f>IF(_CDQdust_day_hour!F7="","",_CDQdust_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G7="","",_CDQdust_day_hour!G7)</f>
         <v/>
       </c>
@@ -3484,13 +3453,13 @@
         <f>IF(_CDQdust_day_hour!P7="","",_CDQdust_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q7="","",_CDQdust_day_hour!Q7)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B12" s="14">
+    <row r="12" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B12" s="15">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -3517,7 +3486,7 @@
         <f>IF(_CDQdust_day_hour!F8="","",_CDQdust_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G8="","",_CDQdust_day_hour!G8)</f>
         <v/>
       </c>
@@ -3557,13 +3526,13 @@
         <f>IF(_CDQdust_day_hour!P8="","",_CDQdust_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q8="","",_CDQdust_day_hour!Q8)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B13" s="14">
+    <row r="13" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B13" s="15">
         <v>0.291666666666667</v>
       </c>
       <c r="C13" s="2" t="str">
@@ -3590,7 +3559,7 @@
         <f>IF(_CDQdust_day_hour!F9="","",_CDQdust_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G9="","",_CDQdust_day_hour!G9)</f>
         <v/>
       </c>
@@ -3630,13 +3599,13 @@
         <f>IF(_CDQdust_day_hour!P9="","",_CDQdust_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q9="","",_CDQdust_day_hour!Q9)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B14" s="14">
+    <row r="14" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B14" s="15">
         <v>0.333333333333333</v>
       </c>
       <c r="C14" s="2" t="str">
@@ -3663,7 +3632,7 @@
         <f>IF(_CDQdust_day_hour!F10="","",_CDQdust_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G10="","",_CDQdust_day_hour!G10)</f>
         <v/>
       </c>
@@ -3703,13 +3672,13 @@
         <f>IF(_CDQdust_day_hour!P10="","",_CDQdust_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q10="","",_CDQdust_day_hour!Q10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B15" s="14">
+    <row r="15" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B15" s="15">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -3736,7 +3705,7 @@
         <f>IF(_CDQdust_day_hour!F11="","",_CDQdust_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G11="","",_CDQdust_day_hour!G11)</f>
         <v/>
       </c>
@@ -3776,13 +3745,13 @@
         <f>IF(_CDQdust_day_hour!P11="","",_CDQdust_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q11="","",_CDQdust_day_hour!Q11)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B16" s="14">
+    <row r="16" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B16" s="15">
         <v>0.416666666666667</v>
       </c>
       <c r="C16" s="2" t="str">
@@ -3809,7 +3778,7 @@
         <f>IF(_CDQdust_day_hour!F12="","",_CDQdust_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G12="","",_CDQdust_day_hour!G12)</f>
         <v/>
       </c>
@@ -3849,13 +3818,13 @@
         <f>IF(_CDQdust_day_hour!P12="","",_CDQdust_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q12="","",_CDQdust_day_hour!Q12)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B17" s="14">
+    <row r="17" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B17" s="15">
         <v>0.458333333333333</v>
       </c>
       <c r="C17" s="2" t="str">
@@ -3882,7 +3851,7 @@
         <f>IF(_CDQdust_day_hour!F13="","",_CDQdust_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_CDQdust_day_hour!G13="","",_CDQdust_day_hour!G13)</f>
         <v/>
       </c>
@@ -3922,1043 +3891,1042 @@
         <f>IF(_CDQdust_day_hour!P13="","",_CDQdust_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="34" t="str">
         <f>IF(_CDQdust_day_hour!Q13="","",_CDQdust_day_hour!Q13)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B18" s="14">
+    <row r="18" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B18" s="15">
         <v>0.5</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A14="","",_CDQdust_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="15" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B14="","",_CDQdust_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C14="","",_CDQdust_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="15" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D14="","",_CDQdust_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="15" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E14="","",_CDQdust_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="15" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F14="","",_CDQdust_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="15" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G14="","",_CDQdust_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="15" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H14="","",_CDQdust_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="15" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I14="","",_CDQdust_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="15" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J14="","",_CDQdust_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="15" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K14="","",_CDQdust_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="15" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L14="","",_CDQdust_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="15" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M14="","",_CDQdust_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="28" t="str">
+      <c r="P18" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N14="","",_CDQdust_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="28" t="str">
+      <c r="Q18" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O14="","",_CDQdust_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="33" t="str">
         <f>IF(_CDQdust_day_hour!P14="","",_CDQdust_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="37" t="str">
+      <c r="S18" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q14="","",_CDQdust_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B19" s="14">
+    <row r="19" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B19" s="15">
         <v>0.541666666666667</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A15="","",_CDQdust_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="15" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B15="","",_CDQdust_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C15="","",_CDQdust_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="15" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D15="","",_CDQdust_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="15" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E15="","",_CDQdust_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="15" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F15="","",_CDQdust_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="15" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G15="","",_CDQdust_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="15" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H15="","",_CDQdust_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="15" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I15="","",_CDQdust_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="15" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J15="","",_CDQdust_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="15" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K15="","",_CDQdust_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="15" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L15="","",_CDQdust_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="15" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M15="","",_CDQdust_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="28" t="str">
+      <c r="P19" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N15="","",_CDQdust_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="28" t="str">
+      <c r="Q19" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O15="","",_CDQdust_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="36" t="str">
+      <c r="R19" s="35" t="str">
         <f>IF(_CDQdust_day_hour!P15="","",_CDQdust_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="37" t="str">
+      <c r="S19" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q15="","",_CDQdust_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B20" s="14">
+    <row r="20" s="4" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B20" s="15">
         <v>0.583333333333333</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A16="","",_CDQdust_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="15" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B16="","",_CDQdust_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C16="","",_CDQdust_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="15" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D16="","",_CDQdust_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="15" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E16="","",_CDQdust_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="15" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F16="","",_CDQdust_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="15" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G16="","",_CDQdust_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="15" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H16="","",_CDQdust_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="15" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I16="","",_CDQdust_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="15" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J16="","",_CDQdust_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="15" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K16="","",_CDQdust_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="15" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L16="","",_CDQdust_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="15" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M16="","",_CDQdust_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="28" t="str">
+      <c r="P20" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N16="","",_CDQdust_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="28" t="str">
+      <c r="Q20" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O16="","",_CDQdust_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P16="","",_CDQdust_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="37" t="str">
+      <c r="S20" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q16="","",_CDQdust_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B21" s="14">
+    <row r="21" s="4" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B21" s="15">
         <v>0.625</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A17="","",_CDQdust_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="15" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B17="","",_CDQdust_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C17="","",_CDQdust_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="15" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D17="","",_CDQdust_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="15" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E17="","",_CDQdust_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="15" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F17="","",_CDQdust_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="15" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G17="","",_CDQdust_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H17="","",_CDQdust_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="15" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I17="","",_CDQdust_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J17="","",_CDQdust_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="15" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K17="","",_CDQdust_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="15" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L17="","",_CDQdust_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="15" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M17="","",_CDQdust_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="28" t="str">
+      <c r="P21" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N17="","",_CDQdust_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="28" t="str">
+      <c r="Q21" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O17="","",_CDQdust_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P17="","",_CDQdust_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="37" t="str">
+      <c r="S21" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q17="","",_CDQdust_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="2:19">
-      <c r="B22" s="14">
+    <row r="22" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B22" s="15">
         <v>0.666666666666667</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A18="","",_CDQdust_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="15" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B18="","",_CDQdust_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C18="","",_CDQdust_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="15" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D18="","",_CDQdust_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="15" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E18="","",_CDQdust_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="15" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F18="","",_CDQdust_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="15" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G18="","",_CDQdust_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="15" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H18="","",_CDQdust_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="15" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I18="","",_CDQdust_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J18="","",_CDQdust_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="15" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K18="","",_CDQdust_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="15" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L18="","",_CDQdust_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="15" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M18="","",_CDQdust_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="28" t="str">
+      <c r="P22" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N18="","",_CDQdust_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="28" t="str">
+      <c r="Q22" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O18="","",_CDQdust_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P18="","",_CDQdust_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="37" t="str">
+      <c r="S22" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q18="","",_CDQdust_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="2:19">
-      <c r="B23" s="14">
+    <row r="23" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B23" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A19="","",_CDQdust_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B19="","",_CDQdust_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C19="","",_CDQdust_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="15" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D19="","",_CDQdust_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="15" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E19="","",_CDQdust_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="15" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F19="","",_CDQdust_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="15" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G19="","",_CDQdust_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="15" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H19="","",_CDQdust_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="15" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I19="","",_CDQdust_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="15" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J19="","",_CDQdust_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="15" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K19="","",_CDQdust_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="15" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L19="","",_CDQdust_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="15" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M19="","",_CDQdust_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="28" t="str">
+      <c r="P23" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N19="","",_CDQdust_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="28" t="str">
+      <c r="Q23" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O19="","",_CDQdust_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P19="","",_CDQdust_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="37" t="str">
+      <c r="S23" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q19="","",_CDQdust_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="2:19">
-      <c r="B24" s="14">
+    <row r="24" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B24" s="15">
         <v>0.75</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A20="","",_CDQdust_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="15" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B20="","",_CDQdust_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C20="","",_CDQdust_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="15" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D20="","",_CDQdust_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="15" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E20="","",_CDQdust_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="15" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F20="","",_CDQdust_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="15" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G20="","",_CDQdust_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="15" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H20="","",_CDQdust_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="15" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I20="","",_CDQdust_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="15" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J20="","",_CDQdust_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="15" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K20="","",_CDQdust_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="15" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L20="","",_CDQdust_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="15" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M20="","",_CDQdust_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N20="","",_CDQdust_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O20="","",_CDQdust_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P20="","",_CDQdust_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="37" t="str">
+      <c r="S24" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q20="","",_CDQdust_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="2:19">
-      <c r="B25" s="14">
+    <row r="25" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B25" s="15">
         <v>0.791666666666667</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A21="","",_CDQdust_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B21="","",_CDQdust_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C21="","",_CDQdust_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="15" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D21="","",_CDQdust_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="15" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E21="","",_CDQdust_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="15" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F21="","",_CDQdust_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="15" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G21="","",_CDQdust_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="15" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H21="","",_CDQdust_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="15" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I21="","",_CDQdust_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="15" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J21="","",_CDQdust_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="15" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K21="","",_CDQdust_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="15" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L21="","",_CDQdust_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="15" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M21="","",_CDQdust_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="28" t="str">
+      <c r="P25" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N21="","",_CDQdust_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="28" t="str">
+      <c r="Q25" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O21="","",_CDQdust_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P21="","",_CDQdust_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="37" t="str">
+      <c r="S25" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q21="","",_CDQdust_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="2:19">
-      <c r="B26" s="14">
+    <row r="26" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B26" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A22="","",_CDQdust_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="15" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B22="","",_CDQdust_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C22="","",_CDQdust_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="15" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D22="","",_CDQdust_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="15" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E22="","",_CDQdust_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="15" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F22="","",_CDQdust_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="15" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G22="","",_CDQdust_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="15" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H22="","",_CDQdust_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="15" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I22="","",_CDQdust_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="15" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J22="","",_CDQdust_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="15" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K22="","",_CDQdust_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="15" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L22="","",_CDQdust_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="15" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M22="","",_CDQdust_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N22="","",_CDQdust_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="28" t="str">
+      <c r="Q26" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O22="","",_CDQdust_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P22="","",_CDQdust_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="37" t="str">
+      <c r="S26" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q22="","",_CDQdust_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="2:19">
-      <c r="B27" s="14">
+    <row r="27" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B27" s="15">
         <v>0.875</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A23="","",_CDQdust_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B23="","",_CDQdust_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="15" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C23="","",_CDQdust_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="15" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D23="","",_CDQdust_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="15" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E23="","",_CDQdust_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="15" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F23="","",_CDQdust_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="15" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G23="","",_CDQdust_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="15" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H23="","",_CDQdust_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="15" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I23="","",_CDQdust_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="15" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J23="","",_CDQdust_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="15" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K23="","",_CDQdust_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="15" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L23="","",_CDQdust_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="15" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M23="","",_CDQdust_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P27" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N23="","",_CDQdust_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O23="","",_CDQdust_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P23="","",_CDQdust_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="37" t="str">
+      <c r="S27" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q23="","",_CDQdust_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="2:19">
-      <c r="B28" s="14">
+    <row r="28" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B28" s="15">
         <v>0.916666666666667</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A24="","",_CDQdust_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="15" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B24="","",_CDQdust_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="15" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C24="","",_CDQdust_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="15" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D24="","",_CDQdust_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="15" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E24="","",_CDQdust_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="15" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F24="","",_CDQdust_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="15" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G24="","",_CDQdust_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="15" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H24="","",_CDQdust_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="15" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I24="","",_CDQdust_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="15" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J24="","",_CDQdust_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="15" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K24="","",_CDQdust_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="15" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L24="","",_CDQdust_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="15" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M24="","",_CDQdust_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N24="","",_CDQdust_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O24="","",_CDQdust_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P24="","",_CDQdust_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q24="","",_CDQdust_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="2:19">
-      <c r="B29" s="14">
+    <row r="29" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B29" s="15">
         <v>0.958333333333333</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!A25="","",_CDQdust_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!B25="","",_CDQdust_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="15" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!C25="","",_CDQdust_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="15" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!D25="","",_CDQdust_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="15" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!E25="","",_CDQdust_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="15" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!F25="","",_CDQdust_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="15" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!G25="","",_CDQdust_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="15" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!H25="","",_CDQdust_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="15" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!I25="","",_CDQdust_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="15" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!J25="","",_CDQdust_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="15" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!K25="","",_CDQdust_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="15" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!L25="","",_CDQdust_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="15" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_CDQdust_day_hour!M25="","",_CDQdust_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="28" t="str">
+      <c r="P29" s="27" t="str">
         <f>IF(_CDQdust_day_hour!N25="","",_CDQdust_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="28" t="str">
+      <c r="Q29" s="27" t="str">
         <f>IF(_CDQdust_day_hour!O25="","",_CDQdust_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R29" s="27" t="str">
         <f>IF(_CDQdust_day_hour!P25="","",_CDQdust_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="37" t="str">
+      <c r="S29" s="36" t="str">
         <f>IF(_CDQdust_day_hour!Q25="","",_CDQdust_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="2:19">
-      <c r="B30" s="16" t="s">
+    <row r="30" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="37"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="36"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="2:19">
-      <c r="B31" s="16" t="s">
+    <row r="33" s="4" customFormat="1" ht="16.5" spans="2:19">
+      <c r="B33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="37"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="37"/>
     </row>
-    <row r="32" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B32" s="16" t="s">
+    <row r="34" s="4" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
+      <c r="B34" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="37"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="22"/>
     </row>
-    <row r="33" ht="16.5" spans="2:19">
-      <c r="B33" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="38"/>
+    <row r="35" s="4" customFormat="1" ht="15" customHeight="1" spans="2:19">
+      <c r="B35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="25"/>
     </row>
-    <row r="34" ht="71.45" customHeight="1" spans="2:19">
-      <c r="B34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="21"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="2:19">
-      <c r="B35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="24"/>
-    </row>
-    <row r="37" ht="22.5" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="46" ht="15.6" customHeight="1"/>
-    <row r="53" ht="44.1" customHeight="1"/>
-    <row r="59" ht="41.1" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="96" ht="30" customHeight="1"/>
-    <row r="104" ht="36.95" customHeight="1"/>
+    <row r="37" s="4" customFormat="1" ht="22.5" customHeight="1"/>
+    <row r="40" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <row r="41" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <row r="46" s="4" customFormat="1" ht="15.6" customHeight="1"/>
+    <row r="53" s="4" customFormat="1" ht="44.1" customHeight="1"/>
+    <row r="59" s="4" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="65" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <row r="70" s="4" customFormat="1" ht="16.5" customHeight="1"/>
+    <row r="90" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <row r="96" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <row r="104" s="4" customFormat="1" ht="36.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="B1:S1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
@@ -4997,77 +4965,61 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78.75" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="78.75" spans="1:17">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>